--- a/data/trans_dic/P22$ss-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P22$ss-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.9928314025836328</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.9852557691696479</v>
+        <v>0.9852557691696476</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.9787017868930872</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9647739517867838</v>
+        <v>0.9628711672473285</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9736130207653327</v>
+        <v>0.9710142265811926</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.974376444369326</v>
+        <v>0.9736550754937009</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9744796178379298</v>
+        <v>0.9728997257974903</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9653061859771049</v>
+        <v>0.9653430726671498</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.971624351233912</v>
+        <v>0.9707605218010258</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9865562842474418</v>
+        <v>0.9855237891302959</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9716349555418244</v>
+        <v>0.972545306490316</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9700478180684112</v>
+        <v>0.9694213512600678</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9757745902461374</v>
+        <v>0.9752970020996495</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9839237500846959</v>
+        <v>0.9833190357910078</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9771445912180763</v>
+        <v>0.9778804010573683</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9901779121372737</v>
+        <v>0.9898747704378208</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9903581819457359</v>
+        <v>0.9908327067322413</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9904999901465844</v>
+        <v>0.9910658754060224</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9976208365633423</v>
+        <v>0.996734263741021</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9861391297572872</v>
+        <v>0.9861796728850225</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9891666623084058</v>
+        <v>0.9896616772524007</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9970980208062949</v>
+        <v>0.9968440056874084</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9925672264825932</v>
+        <v>0.9928886779225043</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9856384828203708</v>
+        <v>0.9854034352303171</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9886085105769231</v>
+        <v>0.9876601271246638</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9929148289524815</v>
+        <v>0.9927510514932474</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9933479895414404</v>
+        <v>0.9930481638707459</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.9657838394200948</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9862835613610681</v>
+        <v>0.986283561361068</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9710118557301941</v>
+        <v>0.9701252817673708</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9601128517748457</v>
+        <v>0.9599855715826874</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9501981638335093</v>
+        <v>0.9493949852406807</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9703419143661168</v>
+        <v>0.9696585713238168</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9454827068349528</v>
+        <v>0.9462705640230448</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.953611414692871</v>
+        <v>0.9541783789006469</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9552413369287057</v>
+        <v>0.9538354224901956</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9774528499681104</v>
+        <v>0.9757400126037508</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9630893528580656</v>
+        <v>0.9629978745592856</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9615962211013181</v>
+        <v>0.9616499875460757</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9557893458249852</v>
+        <v>0.9561663279254665</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9784544935763637</v>
+        <v>0.9792140485865692</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9891197640870729</v>
+        <v>0.9885348955276563</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9827588901128144</v>
+        <v>0.9823973288484816</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9749906392672641</v>
+        <v>0.975093484018574</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9928863426611864</v>
+        <v>0.9922664742000387</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9714380454726638</v>
+        <v>0.9712078019345771</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9777967056462271</v>
+        <v>0.9779652171421258</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9777501646103534</v>
+        <v>0.9769820119805613</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9932014063793752</v>
+        <v>0.9928239752697171</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9777480563541149</v>
+        <v>0.9781896113109954</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9779574271051151</v>
+        <v>0.9780848253868326</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9730350657000066</v>
+        <v>0.9738001888678811</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9911221259724859</v>
+        <v>0.991095813738137</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.9446686369807583</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.9632200757688122</v>
+        <v>0.9632200757688123</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.9426953404509573</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.927772005733534</v>
+        <v>0.9273486084039703</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.910678150386072</v>
+        <v>0.909794083883205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9071307257526348</v>
+        <v>0.9050457228849597</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9306996035509177</v>
+        <v>0.9309366752760966</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.925866933185394</v>
+        <v>0.9260977148343402</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9464372530133532</v>
+        <v>0.948179043614568</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9247402158479053</v>
+        <v>0.927506880130802</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9519888532234895</v>
+        <v>0.9525296954365641</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9321530924263587</v>
+        <v>0.9308531352378858</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9334570581534396</v>
+        <v>0.9332729733326817</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9220812916134133</v>
+        <v>0.9207585192534832</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.945999289304391</v>
+        <v>0.945482257541659</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9538386684845034</v>
+        <v>0.9549854713478741</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.94679365103671</v>
+        <v>0.9473714136327035</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.944754611824964</v>
+        <v>0.9444881620849668</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9634742075606489</v>
+        <v>0.9622334029899747</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9581697696018179</v>
+        <v>0.9583353812202984</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9736458145153297</v>
+        <v>0.9744012997666373</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9595988437415</v>
+        <v>0.9611809882052627</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9713651117630367</v>
+        <v>0.9721467900643496</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9515352704779473</v>
+        <v>0.9511224156326058</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9564817738812544</v>
+        <v>0.9565529812276635</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9480025716087062</v>
+        <v>0.9455451707319963</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.964504796975024</v>
+        <v>0.9640600816834141</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.9060260998791145</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9395579641837051</v>
+        <v>0.9395579641837049</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.873228161977846</v>
+        <v>0.8740481812839965</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8579830522003105</v>
+        <v>0.8559006992107591</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8643225403174017</v>
+        <v>0.865530221599603</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9168458085629724</v>
+        <v>0.918478943406973</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8620917000185606</v>
+        <v>0.8640938474337539</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8713236138890756</v>
+        <v>0.8709291168712469</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8889934465055749</v>
+        <v>0.8863120003691057</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.929037450854208</v>
+        <v>0.9273163118895849</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8794174554272551</v>
+        <v>0.8759497341101765</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.87482510597453</v>
+        <v>0.8753137118932469</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8836682342184637</v>
+        <v>0.8852266272158381</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9275882235330214</v>
+        <v>0.9281433353194679</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9316209368836008</v>
+        <v>0.9299503760437164</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9214108630161196</v>
+        <v>0.919825108335382</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9218255000610764</v>
+        <v>0.9211131543954756</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9520000508096946</v>
+        <v>0.9512790540231794</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.929945980436001</v>
+        <v>0.9267448345138352</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9334143777832222</v>
+        <v>0.9332902783285794</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9421820191727871</v>
+        <v>0.9398466378586411</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9538322945004696</v>
+        <v>0.9532855493171424</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9228612736699796</v>
+        <v>0.9218428649632601</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9187069142362817</v>
+        <v>0.9206722845067037</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9237969063987099</v>
+        <v>0.9248048237385721</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9491426715391839</v>
+        <v>0.9496729596305878</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.9646891265391631</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.969077787293512</v>
+        <v>0.9690777872935119</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.955385060106572</v>
@@ -1241,7 +1241,7 @@
         <v>0.9581028134510148</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.9653263939296406</v>
+        <v>0.9653263939296405</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9489045427145043</v>
+        <v>0.9485984831051435</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9441437083905542</v>
+        <v>0.9440369980020977</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.94278011527559</v>
+        <v>0.9426833412381391</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9532460507336692</v>
+        <v>0.95357109219713</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9457310769659842</v>
+        <v>0.9460729410728248</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9557623101354862</v>
+        <v>0.9559120529057693</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9579317205282891</v>
+        <v>0.9568819154782775</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9640231516251639</v>
+        <v>0.963615735124085</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9502803104878516</v>
+        <v>0.94958786543941</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9524049356185248</v>
+        <v>0.9523978524126537</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9531226795468846</v>
+        <v>0.9524142308871387</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9607146073086731</v>
+        <v>0.960695259560819</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9639705522822953</v>
+        <v>0.9635350884161213</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.96025813448317</v>
+        <v>0.9601562331272125</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9583217853473391</v>
+        <v>0.9581871506027763</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9675343099053687</v>
+        <v>0.9681766364742451</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9608718516049183</v>
+        <v>0.9608647028302963</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9700748774292953</v>
+        <v>0.9689569004974278</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9707503596094407</v>
+        <v>0.9705579329795185</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9738178688121402</v>
+        <v>0.9738180653401832</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9601290025369601</v>
+        <v>0.9604565478031211</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9637035745643933</v>
+        <v>0.963043246173551</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.963019617202481</v>
+        <v>0.9628555359890481</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9691367161464607</v>
+        <v>0.9693570075313342</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>562775</v>
+        <v>561665</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1016389</v>
+        <v>1013676</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1098184</v>
+        <v>1097371</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>486011</v>
+        <v>485223</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>890334</v>
+        <v>890368</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1088149</v>
+        <v>1087182</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1238155</v>
+        <v>1236859</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>605892</v>
+        <v>606460</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1460558</v>
+        <v>1459615</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2111443</v>
+        <v>2110409</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2343795</v>
+        <v>2342354</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1096669</v>
+        <v>1097495</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>577594</v>
+        <v>577417</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>1033870</v>
+        <v>1034365</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1116356</v>
+        <v>1116994</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>497552</v>
+        <v>497110</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>909549</v>
+        <v>909586</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1107795</v>
+        <v>1108350</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1251385</v>
+        <v>1251066</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>618945</v>
+        <v>619146</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1484032</v>
+        <v>1483679</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>2139213</v>
+        <v>2137161</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>2365212</v>
+        <v>2364822</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1114854</v>
+        <v>1114518</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1045546</v>
+        <v>1044591</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>937158</v>
+        <v>937034</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>859783</v>
+        <v>859056</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>931661</v>
+        <v>931005</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>998767</v>
+        <v>999600</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1043501</v>
+        <v>1044121</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>960212</v>
+        <v>958799</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1090690</v>
+        <v>1088779</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2054382</v>
+        <v>2054187</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1990845</v>
+        <v>1990956</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1825606</v>
+        <v>1826326</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2031258</v>
+        <v>2032835</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1065044</v>
+        <v>1064414</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>959263</v>
+        <v>958910</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>882216</v>
+        <v>882309</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>953307</v>
+        <v>952712</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1026185</v>
+        <v>1025942</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1069966</v>
+        <v>1070150</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>982838</v>
+        <v>982066</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1108263</v>
+        <v>1107842</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>2085651</v>
+        <v>2086593</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>2024718</v>
+        <v>2024982</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1858547</v>
+        <v>1860008</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>2057556</v>
+        <v>2057501</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1037846</v>
+        <v>1037372</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>806055</v>
+        <v>805272</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>747257</v>
+        <v>745540</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>973958</v>
+        <v>974206</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>919471</v>
+        <v>919700</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>828886</v>
+        <v>830411</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>713029</v>
+        <v>715163</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>997344</v>
+        <v>997910</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1968460</v>
+        <v>1965715</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1643735</v>
+        <v>1643411</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1470552</v>
+        <v>1468442</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1981037</v>
+        <v>1979954</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1067005</v>
+        <v>1068288</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>838021</v>
+        <v>838533</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>778250</v>
+        <v>778031</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1008256</v>
+        <v>1006957</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>951551</v>
+        <v>951715</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>852715</v>
+        <v>853377</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>739907</v>
+        <v>741127</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1017643</v>
+        <v>1018462</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2009390</v>
+        <v>2008518</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1684279</v>
+        <v>1684405</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1511892</v>
+        <v>1507972</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>2019790</v>
+        <v>2018858</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>389194</v>
+        <v>389560</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>431585</v>
+        <v>430538</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>437953</v>
+        <v>438565</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>894776</v>
+        <v>896370</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>294109</v>
+        <v>294793</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>394480</v>
+        <v>394301</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>435338</v>
+        <v>434025</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>843172</v>
+        <v>841610</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>691973</v>
+        <v>689245</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>836121</v>
+        <v>836588</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>880485</v>
+        <v>882038</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1747117</v>
+        <v>1748163</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>415220</v>
+        <v>414475</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>463491</v>
+        <v>462693</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>467090</v>
+        <v>466729</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>929084</v>
+        <v>928381</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>317259</v>
+        <v>316166</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>422590</v>
+        <v>422534</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>461385</v>
+        <v>460241</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>865675</v>
+        <v>865179</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>726157</v>
+        <v>725356</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>878061</v>
+        <v>879940</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>920469</v>
+        <v>921474</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1787715</v>
+        <v>1788714</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3059668</v>
+        <v>3058681</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3217797</v>
+        <v>3217433</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3169975</v>
+        <v>3169649</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3318520</v>
+        <v>3319652</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3133151</v>
+        <v>3134284</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3386000</v>
+        <v>3386531</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3372866</v>
+        <v>3369170</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3561725</v>
+        <v>3560220</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6212325</v>
+        <v>6207799</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>6620058</v>
+        <v>6620009</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>6560684</v>
+        <v>6555807</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>6894023</v>
+        <v>6893884</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3108247</v>
+        <v>3106843</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3272717</v>
+        <v>3272370</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3222231</v>
+        <v>3221779</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3368262</v>
+        <v>3370498</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3183312</v>
+        <v>3183288</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3436706</v>
+        <v>3432745</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>3418000</v>
+        <v>3417323</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3597913</v>
+        <v>3597914</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6276710</v>
+        <v>6278851</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>6698594</v>
+        <v>6694004</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>6628808</v>
+        <v>6627678</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>6954459</v>
+        <v>6956040</v>
       </c>
     </row>
     <row r="24">
